--- a/app/src/main/assets/2020版本微淼18步数据汇总工具及异常项自动评价-self01-report.xlsx
+++ b/app/src/main/assets/2020版本微淼18步数据汇总工具及异常项自动评价-self01-report.xlsx
@@ -3084,10 +3084,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0&quot;.&quot;00,,&quot;亿&quot;"/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -3276,43 +3276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3329,17 +3292,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3353,25 +3344,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3383,6 +3359,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3391,10 +3384,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3497,7 +3497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3509,7 +3509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3521,13 +3533,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3545,13 +3641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3563,31 +3653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,79 +3665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3807,6 +3807,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3822,37 +3833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3872,6 +3857,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3887,20 +3890,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3912,10 +3912,10 @@
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3924,16 +3924,16 @@
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
@@ -3945,112 +3945,112 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4100,10 +4100,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10059,7 +10059,7 @@
   <dimension ref="A1:AG106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -10067,7 +10067,11 @@
     <col min="1" max="1" width="3.44166666666667" style="11" customWidth="1"/>
     <col min="2" max="2" width="31" style="12" customWidth="1"/>
     <col min="3" max="3" width="9.78333333333333" style="11" customWidth="1"/>
-    <col min="4" max="8" width="8.33333333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.48333333333333" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.3916666666667" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.48333333333333" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.325" style="11" customWidth="1"/>
     <col min="9" max="9" width="5.11666666666667" style="11" customWidth="1"/>
     <col min="10" max="10" width="29.8916666666667" style="11" customWidth="1"/>
     <col min="11" max="11" width="7" style="11" hidden="1" customWidth="1"/>
@@ -10110,23 +10114,18 @@
         <v>21</v>
       </c>
       <c r="D2" s="17">
-        <f>L2</f>
         <v>44012</v>
       </c>
       <c r="E2" s="17">
-        <f>M2</f>
         <v>44104</v>
       </c>
       <c r="F2" s="17">
-        <f>N2</f>
         <v>44196</v>
       </c>
       <c r="G2" s="18">
-        <f>O2</f>
         <v>44286</v>
       </c>
       <c r="H2" s="17">
-        <f>P2</f>
         <v>44377</v>
       </c>
       <c r="I2" s="36"/>
